--- a/QLMTest/src/main/java/com/qlm/qa/testdata/PPAPTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/PPAPTestData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17490" windowHeight="6975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PPAPTemplate" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Elementdata" sheetId="4" r:id="rId2"/>
+    <sheet name="PPAPCreateData" sheetId="5" r:id="rId3"/>
+    <sheet name="PPAP" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>TemplateName</t>
   </si>
@@ -25,10 +25,106 @@
     <t>SubmisionLevel</t>
   </si>
   <si>
-    <t>SamplePPAP</t>
-  </si>
-  <si>
     <t>Level 03</t>
+  </si>
+  <si>
+    <t>ElementNo</t>
+  </si>
+  <si>
+    <t>ElementName</t>
+  </si>
+  <si>
+    <t>SamplePPAPTest</t>
+  </si>
+  <si>
+    <t>ElementAbbriviation</t>
+  </si>
+  <si>
+    <t>Process Flow Diagram</t>
+  </si>
+  <si>
+    <t>PFD</t>
+  </si>
+  <si>
+    <t>tOEMCustomer</t>
+  </si>
+  <si>
+    <t>tPartNo</t>
+  </si>
+  <si>
+    <t>tPPAPReason</t>
+  </si>
+  <si>
+    <t>tLocation</t>
+  </si>
+  <si>
+    <t>tPlant</t>
+  </si>
+  <si>
+    <t>tProgram</t>
+  </si>
+  <si>
+    <t>tBusinessUnit</t>
+  </si>
+  <si>
+    <t>tPPAPReviewer</t>
+  </si>
+  <si>
+    <t>tPPAPApprover</t>
+  </si>
+  <si>
+    <t>tSupplier</t>
+  </si>
+  <si>
+    <t>tSupplierCoordinator</t>
+  </si>
+  <si>
+    <t>tSupplierLocation</t>
+  </si>
+  <si>
+    <t>tSupplierPlant</t>
+  </si>
+  <si>
+    <t>tTemplate</t>
+  </si>
+  <si>
+    <t>Customer 1</t>
+  </si>
+  <si>
+    <t>Initial PPAP ()</t>
+  </si>
+  <si>
+    <t>Bangalore (Bangalore)</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>BHARATH_TEST ()</t>
+  </si>
+  <si>
+    <t>BU123 ()</t>
+  </si>
+  <si>
+    <t>reviewer test</t>
+  </si>
+  <si>
+    <t>approver test</t>
+  </si>
+  <si>
+    <t>Na Veen (NaVeen)</t>
+  </si>
+  <si>
+    <t>Naveen Naveen (suppliernaveen)</t>
+  </si>
+  <si>
+    <t>Bangalore ()</t>
+  </si>
+  <si>
+    <t>Bangalore Plant</t>
+  </si>
+  <si>
+    <t>Standard Automotive</t>
   </si>
 </sst>
 </file>
@@ -78,9 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,13 +474,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -397,10 +494,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -411,24 +508,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>18135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>18135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QLMTest/src/main/java/com/qlm/qa/testdata/PPAPTestData.xlsx
+++ b/QLMTest/src/main/java/com/qlm/qa/testdata/PPAPTestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>TemplateName</t>
   </si>
@@ -554,7 +554,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -673,19 +673,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -695,8 +707,38 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>18135</v>
       </c>
@@ -705,6 +747,36 @@
       </c>
       <c r="C2" t="s">
         <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
